--- a/May/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/May/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>B12i</t>
   </si>
@@ -283,33 +284,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 27.4.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colour </t>
-  </si>
-  <si>
-    <t>Colour</t>
-  </si>
-  <si>
     <t>L55i</t>
   </si>
   <si>
     <t>L250</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Gold &amp; Black</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>100 lifting marging &amp;       30 Back Margin</t>
   </si>
   <si>
@@ -320,6 +300,12 @@
   </si>
   <si>
     <t>100 lifting marging &amp;       50 Back Margin</t>
+  </si>
+  <si>
+    <t>CP (TK.)</t>
+  </si>
+  <si>
+    <t>Symphony Update Price list                              Date: 05.05.2019</t>
   </si>
 </sst>
 </file>
@@ -329,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,22 +421,15 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -474,7 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -547,9 +526,6 @@
     <xf numFmtId="4" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -562,56 +538,74 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -621,15 +615,282 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="8-Point Star 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="9020175"/>
+          <a:ext cx="123825" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="star8">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="8-Point Star 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="11658600"/>
+          <a:ext cx="123825" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="star8">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8-Point Star 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="7639050"/>
+          <a:ext cx="123825" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="star8">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="8-Point Star 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="5276850"/>
+          <a:ext cx="123825" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="star8">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="8-Point Star 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6553200" y="2686050"/>
+          <a:ext cx="152402" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="star8">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,7 +1181,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -933,64 +1194,66 @@
     <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="17" style="34" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="22" customWidth="1"/>
     <col min="11" max="16384" width="22" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>800</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
         <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1000,9 +1263,9 @@
         <v>1730</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="21.95" customHeight="1">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="21.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
@@ -1019,11 +1282,11 @@
         <v>1250</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="23">
+      <c r="J4" s="19">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="21.95" customHeight="1">
+    <row r="5" spans="1:11" ht="21.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -1035,7 +1298,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1043,11 +1306,11 @@
         <v>1370</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="23">
+      <c r="J5" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="21.95" customHeight="1">
+    <row r="6" spans="1:11" ht="21.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1066,11 +1329,12 @@
         <v>1890</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="23">
+      <c r="J6" s="19">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="33.75" customHeight="1">
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" ht="33.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1082,29 +1346,29 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>2780</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>790</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
         <v>30</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1114,9 +1378,9 @@
         <v>6540</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1">
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -1126,18 +1390,18 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="28">
         <v>6210</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="23">
+      <c r="I9" s="28"/>
+      <c r="J9" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1">
+    <row r="10" spans="1:11" ht="21.95" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1156,11 +1420,11 @@
         <v>7075</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="23">
+      <c r="J10" s="19">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="21.95" customHeight="1">
+    <row r="11" spans="1:11" ht="21.95" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,11 +1443,11 @@
         <v>7910</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="23">
+      <c r="J11" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="21.95" customHeight="1">
+    <row r="12" spans="1:11" ht="21.95" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1193,43 +1457,43 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>7890</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="24" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>880</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
         <v>40</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>7490</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="24" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="21.95" customHeight="1">
+    <row r="14" spans="1:11" ht="21.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1248,11 +1512,11 @@
         <v>8340</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="23">
+      <c r="J14" s="19">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1">
+    <row r="15" spans="1:11" ht="21.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1271,20 +1535,22 @@
         <v>9190</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="23">
+      <c r="J15" s="19">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>1000</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
@@ -1292,29 +1558,31 @@
         <v>3560</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="23">
+      <c r="J16" s="19">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>995</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="10" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>3340</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="24" t="s">
-        <v>99</v>
+      <c r="I17" s="12"/>
+      <c r="J17" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21.95" customHeight="1">
@@ -1329,27 +1597,29 @@
       <c r="E18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="28">
         <v>4690</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="23">
+      <c r="I18" s="28"/>
+      <c r="J18" s="29">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="12">
         <v>960</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9">
         <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1359,7 +1629,7 @@
         <v>5390</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="23">
+      <c r="J19" s="19">
         <v>75</v>
       </c>
     </row>
@@ -1382,7 +1652,7 @@
         <v>4970</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="23">
+      <c r="J20" s="19">
         <v>130</v>
       </c>
     </row>
@@ -1398,52 +1668,54 @@
       <c r="E21" s="1">
         <v>20</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>3710</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="24" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1290</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1290</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
-        <v>100</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="E22" s="9">
         <v>10</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>3620</v>
       </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="24" t="s">
-        <v>101</v>
+      <c r="I22" s="32"/>
+      <c r="J22" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="12">
         <v>1270</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9">
         <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1453,7 +1725,7 @@
         <v>4620</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="23">
+      <c r="J23" s="19">
         <v>75</v>
       </c>
     </row>
@@ -1476,7 +1748,7 @@
         <v>4520</v>
       </c>
       <c r="I24" s="7"/>
-      <c r="J24" s="23">
+      <c r="J24" s="19">
         <v>50</v>
       </c>
     </row>
@@ -1498,8 +1770,8 @@
       <c r="H25" s="8">
         <v>4080</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="23">
+      <c r="I25" s="33"/>
+      <c r="J25" s="19">
         <v>70</v>
       </c>
     </row>
@@ -1515,14 +1787,14 @@
       <c r="E26" s="1">
         <v>50</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="28">
         <v>4360</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="23">
+      <c r="I26" s="28"/>
+      <c r="J26" s="29">
         <v>50</v>
       </c>
     </row>
@@ -1544,23 +1816,23 @@
       <c r="H27" s="8">
         <v>4640</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="23">
+      <c r="I27" s="33"/>
+      <c r="J27" s="19">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>1100</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12">
         <v>50</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1570,7 +1842,7 @@
         <v>5650</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="23">
+      <c r="J28" s="19">
         <v>75</v>
       </c>
     </row>
@@ -1593,7 +1865,7 @@
         <v>5020</v>
       </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="23">
+      <c r="J29" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1616,7 +1888,7 @@
         <v>5280</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="23">
+      <c r="J30" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1632,14 +1904,14 @@
       <c r="E31" s="1">
         <v>20</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="28">
         <v>5440</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="24" t="s">
+      <c r="I31" s="28"/>
+      <c r="J31" s="29" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -1656,31 +1928,27 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>5560</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="24" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="20" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="28">
+      <c r="A33" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="24">
         <v>1050</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="27">
+      <c r="C33" s="26"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23">
         <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1690,7 +1958,7 @@
         <v>6090</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="25">
+      <c r="J33" s="21">
         <v>100</v>
       </c>
     </row>
@@ -1713,22 +1981,22 @@
         <v>5390</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="23">
+      <c r="J34" s="19">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>1100</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12">
         <v>50</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>10</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -1738,7 +2006,7 @@
         <v>12590</v>
       </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
       <c r="A36" s="1" t="s">
@@ -1759,22 +2027,22 @@
         <v>12240</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="23">
+      <c r="J36" s="19">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>1330</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12">
         <v>100</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1784,7 +2052,7 @@
         <v>12090</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="23">
+      <c r="J37" s="19">
         <v>200</v>
       </c>
     </row>
@@ -1807,7 +2075,7 @@
         <v>10840</v>
       </c>
       <c r="I38" s="3"/>
-      <c r="J38" s="23">
+      <c r="J38" s="19">
         <v>200</v>
       </c>
     </row>
@@ -1830,7 +2098,7 @@
         <v>12490</v>
       </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="23">
+      <c r="J39" s="19">
         <v>300</v>
       </c>
     </row>
@@ -1846,14 +2114,14 @@
       <c r="E40" s="1">
         <v>20</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="28">
         <v>12800</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="23">
+      <c r="I40" s="28"/>
+      <c r="J40" s="29">
         <v>250</v>
       </c>
     </row>
@@ -1876,7 +2144,7 @@
         <v>17790</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="23">
+      <c r="J41" s="19">
         <v>300</v>
       </c>
     </row>
@@ -1899,24 +2167,22 @@
         <v>1480</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="22">
+      <c r="J42" s="18">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="28">
+      <c r="A43" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="24">
         <v>1200</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="27"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23">
+        <v>20</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>53</v>
       </c>
@@ -1924,7 +2190,7 @@
         <v>7740</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="23">
+      <c r="J43" s="19">
         <v>150</v>
       </c>
     </row>
@@ -1939,5 +2205,6 @@
   <printOptions verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/May/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/May/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>B12i</t>
   </si>
@@ -86,9 +85,6 @@
     <t>T200</t>
   </si>
   <si>
-    <t>D52j</t>
-  </si>
-  <si>
     <t>T85</t>
   </si>
   <si>
@@ -146,9 +142,6 @@
     <t>L150</t>
   </si>
   <si>
-    <t>Z10</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -209,9 +202,6 @@
     <t>i15</t>
   </si>
   <si>
-    <t>i60</t>
-  </si>
-  <si>
     <t>i75</t>
   </si>
   <si>
@@ -302,10 +292,37 @@
     <t>100 lifting marging &amp;       50 Back Margin</t>
   </si>
   <si>
-    <t>CP (TK.)</t>
-  </si>
-  <si>
-    <t>Symphony Update Price list                              Date: 05.05.2019</t>
+    <t>Symphony Update Price list                              Date: 08.05.2019</t>
+  </si>
+  <si>
+    <t>D52+</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>i65</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>6210/5290</t>
+  </si>
+  <si>
+    <t>5440/5100</t>
+  </si>
+  <si>
+    <t>4360/4220</t>
+  </si>
+  <si>
+    <t>4690/4500</t>
+  </si>
+  <si>
+    <t>12800/10330</t>
   </si>
 </sst>
 </file>
@@ -315,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,13 +443,36 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,12 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +534,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -508,15 +542,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -529,15 +554,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -553,18 +569,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -574,38 +578,62 @@
     <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -622,272 +650,222 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="8-Point Star 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="9020175"/>
-          <a:ext cx="123825" cy="123825"/>
+          <a:off x="5553075" y="2819400"/>
+          <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="star8">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="8-Point Star 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="11658600"/>
-          <a:ext cx="123825" cy="123825"/>
+          <a:off x="5543550" y="9210675"/>
+          <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="star8">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="8-Point Star 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="7639050"/>
-          <a:ext cx="123825" cy="123825"/>
+          <a:off x="5562600" y="7791450"/>
+          <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="star8">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="8-Point Star 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6553200" y="5276850"/>
-          <a:ext cx="123825" cy="123825"/>
+          <a:off x="5553075" y="5419725"/>
+          <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="star8">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="8-Point Star 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6553200" y="2686050"/>
-          <a:ext cx="152402" cy="133350"/>
+        <a:xfrm>
+          <a:off x="5505450" y="11811000"/>
+          <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="star8">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1180,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -1194,119 +1172,115 @@
     <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="34" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17" style="17" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="12" customWidth="1"/>
     <col min="11" max="16384" width="22" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>61</v>
+      <c r="A1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="19">
         <v>800</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19">
         <v>20</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="19">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3">
         <v>1730</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="21.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="19">
         <v>865</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>1250</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="19">
+      <c r="I4" s="4"/>
+      <c r="J4" s="20">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1">
+        <v>64</v>
+      </c>
+      <c r="B5" s="19">
         <v>810</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
         <v>10</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F5" s="7"/>
+      <c r="G5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4">
         <v>1370</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="19">
+      <c r="I5" s="4"/>
+      <c r="J5" s="20">
         <v>20</v>
       </c>
     </row>
@@ -1314,90 +1288,90 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="19">
         <v>800</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>1890</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="19">
+      <c r="I6" s="4"/>
+      <c r="J6" s="20">
         <v>50</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="19">
         <v>795</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="25">
         <v>2780</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="19">
         <v>790</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19">
         <v>30</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="19">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="4">
         <v>6540</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="19"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1">
+        <v>73</v>
+      </c>
+      <c r="B9" s="19">
         <v>915</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="28">
-        <v>6210</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="20">
         <v>100</v>
       </c>
     </row>
@@ -1405,114 +1379,116 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="19">
         <v>910</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
         <v>10</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7075</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="19">
-        <v>145</v>
+      <c r="G10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5750</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="20">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21.95" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="19">
         <v>890</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
         <v>10</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="4">
         <v>7910</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="19">
+      <c r="I11" s="4"/>
+      <c r="J11" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21.95" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1">
+        <v>76</v>
+      </c>
+      <c r="B12" s="19">
         <v>920</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="4">
         <v>7890</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="19">
         <v>880</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
         <v>40</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="19">
         <v>20</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="G13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="4">
         <v>7490</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>1010</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="19">
         <v>25</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="4">
         <v>8340</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="19">
+      <c r="I14" s="4"/>
+      <c r="J14" s="20">
         <v>100</v>
       </c>
     </row>
@@ -1520,116 +1496,116 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="19">
         <v>970</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
         <v>10</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4">
         <v>9190</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="19">
+      <c r="I15" s="4"/>
+      <c r="J15" s="20">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="G16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3560</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3560</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="B17" s="19">
         <v>995</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
         <v>30</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="E17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="4">
         <v>3340</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>1000</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="1">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="19">
         <v>10</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="28">
-        <v>4690</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29">
+      <c r="G18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="12">
+      <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4">
         <v>960</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>40</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="19">
         <v>10</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="4">
         <v>5390</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="19">
+      <c r="I19" s="4"/>
+      <c r="J19" s="20">
         <v>75</v>
       </c>
     </row>
@@ -1637,164 +1613,164 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="19">
         <v>980</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19">
         <v>10</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4">
         <v>4970</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="19">
+      <c r="I20" s="4"/>
+      <c r="J20" s="20">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1">
+        <v>70</v>
+      </c>
+      <c r="B21" s="19">
         <v>1040</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
         <v>20</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="G21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="28">
         <v>3710</v>
       </c>
-      <c r="I21" s="32"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="12">
-        <v>1290</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
-        <v>100</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="B22" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="19">
+        <v>20</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="28">
+        <v>3620</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1270</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
+        <v>80</v>
+      </c>
+      <c r="E23" s="19">
         <v>10</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="11">
-        <v>3620</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1270</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
-        <v>80</v>
-      </c>
-      <c r="E23" s="9">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="4">
         <v>4620</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="19">
+      <c r="I23" s="4"/>
+      <c r="J23" s="20">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21.95" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
         <v>1190</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="19">
         <v>10</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4">
         <v>4520</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="19">
+      <c r="I24" s="4"/>
+      <c r="J24" s="20">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="3">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4">
         <v>1290</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="19">
         <v>25</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="5">
         <v>4080</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="19">
+      <c r="I25" s="16"/>
+      <c r="J25" s="20">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="3">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4">
         <v>1190</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="19">
         <v>50</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="28">
-        <v>4360</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29">
+      <c r="G26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="20">
         <v>50</v>
       </c>
     </row>
@@ -1802,47 +1778,47 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>1080</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="19">
         <v>10</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="5">
+        <v>4640</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="20">
         <v>80</v>
       </c>
-      <c r="H27" s="8">
-        <v>4640</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="19">
-        <v>80</v>
-      </c>
     </row>
     <row r="28" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="4">
         <v>1100</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <v>50</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="19">
         <v>20</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="4">
         <v>5650</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="19">
+      <c r="I28" s="4"/>
+      <c r="J28" s="20">
         <v>75</v>
       </c>
     </row>
@@ -1850,22 +1826,22 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>1120</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="19">
         <v>20</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="4">
         <v>5020</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="19">
+      <c r="I29" s="4"/>
+      <c r="J29" s="20">
         <v>100</v>
       </c>
     </row>
@@ -1873,92 +1849,94 @@
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>1040</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="1">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="19">
         <v>20</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4">
         <v>5280</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="19">
+      <c r="I30" s="4"/>
+      <c r="J30" s="20">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="3">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4">
         <v>1100</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="1">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="19">
         <v>20</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="28">
-        <v>5440</v>
-      </c>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29" t="s">
-        <v>70</v>
+      <c r="G31" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="27" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="3">
+        <v>79</v>
+      </c>
+      <c r="B32" s="4">
         <v>1100</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="1"/>
-      <c r="G32" s="9" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="19"/>
+      <c r="G32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5560</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1050</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="13">
+        <v>15</v>
+      </c>
+      <c r="G33" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="12">
-        <v>5560</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="24">
-        <v>1050</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23">
-        <v>15</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="H33" s="31">
         <v>6090</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="21">
+      <c r="I33" s="31"/>
+      <c r="J33" s="32">
         <v>100</v>
       </c>
     </row>
@@ -1966,93 +1944,97 @@
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>1130</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="1">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="19">
         <v>10</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="4">
         <v>5390</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="19">
+      <c r="I34" s="4"/>
+      <c r="J34" s="20">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="4">
         <v>1100</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4">
         <v>50</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="19">
         <v>10</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="3">
-        <v>12590</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5750</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="20">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="3">
+        <v>47</v>
+      </c>
+      <c r="B36" s="4">
         <v>1330</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="1">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="19">
         <v>50</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="4">
         <v>12240</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="19">
+      <c r="I36" s="4"/>
+      <c r="J36" s="20">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="12">
+      <c r="A37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="4">
         <v>1330</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4">
         <v>100</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="19">
         <v>20</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="G37" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="4">
         <v>12090</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="19">
+      <c r="I37" s="4"/>
+      <c r="J37" s="20">
         <v>200</v>
       </c>
     </row>
@@ -2060,137 +2042,139 @@
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>1200</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="1">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="19">
         <v>20</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="4">
         <v>10840</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="19">
+      <c r="I38" s="4"/>
+      <c r="J38" s="20">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
         <v>1220</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="19">
         <v>20</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="4">
         <v>12490</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="19">
+      <c r="I39" s="4"/>
+      <c r="J39" s="20">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
         <v>1460</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="1">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="19">
         <v>20</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="28">
-        <v>12800</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29">
+      <c r="G40" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="20">
         <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="3">
+        <v>41</v>
+      </c>
+      <c r="B41" s="4">
         <v>1470</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="1">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="19">
         <v>60</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="G41" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="4">
         <v>17790</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="19">
+      <c r="I41" s="4"/>
+      <c r="J41" s="20">
         <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1590</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="19">
         <v>50</v>
       </c>
-      <c r="B42" s="3">
-        <v>1590</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="1">
-        <v>50</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="4">
         <v>1480</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="18">
+      <c r="I42" s="4"/>
+      <c r="J42" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="24">
+      <c r="A43" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="14">
         <v>1200</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="23">
+      <c r="C43" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="13">
         <v>20</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="4">
         <v>7740</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="19">
+      <c r="I43" s="4"/>
+      <c r="J43" s="20">
         <v>150</v>
       </c>
     </row>

--- a/May/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/May/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>B12i</t>
   </si>
@@ -292,9 +292,6 @@
     <t>100 lifting marging &amp;       50 Back Margin</t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 08.05.2019</t>
-  </si>
-  <si>
     <t>D52+</t>
   </si>
   <si>
@@ -323,6 +320,27 @@
   </si>
   <si>
     <t>12800/10330</t>
+  </si>
+  <si>
+    <t>200 Discount &amp; 100      Back Margin</t>
+  </si>
+  <si>
+    <t>4380/4080</t>
+  </si>
+  <si>
+    <t>2860/2780</t>
+  </si>
+  <si>
+    <t>3880/3710</t>
+  </si>
+  <si>
+    <t>3999/3620</t>
+  </si>
+  <si>
+    <t>4840/4640</t>
+  </si>
+  <si>
+    <t>Symphony Update Price list                              Date: 11.05.2019</t>
   </si>
 </sst>
 </file>
@@ -332,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,24 +383,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -471,8 +474,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,7 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +598,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -542,83 +606,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -629,10 +672,64 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -845,6 +942,226 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5505450" y="11811000"/>
+          <a:ext cx="428625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648325" y="7515225"/>
+          <a:ext cx="428625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="2190750"/>
+          <a:ext cx="428625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="6267450"/>
+          <a:ext cx="428625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="6638925"/>
+          <a:ext cx="428625" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="8058150"/>
           <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1158,76 +1475,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="17" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17" style="14" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="9" customWidth="1"/>
     <col min="11" max="16384" width="22" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <v>800</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
         <v>20</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1237,26 +1554,26 @@
         <v>1730</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="11"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="21.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="15">
         <v>865</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="4">
         <v>1250</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="20">
+      <c r="J4" s="16">
         <v>15</v>
       </c>
     </row>
@@ -1264,23 +1581,23 @@
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <v>810</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
         <v>10</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="4">
         <v>1370</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="20">
+      <c r="J5" s="16">
         <v>20</v>
       </c>
     </row>
@@ -1288,90 +1605,90 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="15">
         <v>800</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="4">
         <v>1890</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="20">
+      <c r="J6" s="16">
         <v>50</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <v>795</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15">
         <v>10</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="25">
-        <v>2780</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="20" t="s">
+      <c r="H7" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="39" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="15">
         <v>790</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>30</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>10</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="15" t="s">
         <v>63</v>
       </c>
       <c r="H8" s="4">
         <v>6540</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="20"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="15">
         <v>915</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="19" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="20">
+      <c r="H9" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="44"/>
+      <c r="J9" s="40">
         <v>100</v>
       </c>
     </row>
@@ -1379,24 +1696,24 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <v>910</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15">
         <v>10</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>96</v>
+      <c r="G10" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="H10" s="4">
         <v>5750</v>
       </c>
-      <c r="I10" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="I10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="16">
         <v>80</v>
       </c>
     </row>
@@ -1404,22 +1721,22 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="15">
         <v>890</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="15" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="4">
         <v>7910</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="20">
+      <c r="J11" s="16">
         <v>100</v>
       </c>
     </row>
@@ -1427,45 +1744,45 @@
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="15">
         <v>920</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="15" t="s">
         <v>78</v>
       </c>
       <c r="H12" s="4">
         <v>7890</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="39" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="15">
         <v>880</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15">
         <v>40</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="15">
         <v>20</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="4">
         <v>7490</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1478,17 +1795,17 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="19">
+      <c r="E14" s="15">
         <v>25</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H14" s="4">
         <v>8340</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="20">
+      <c r="J14" s="16">
         <v>100</v>
       </c>
     </row>
@@ -1496,68 +1813,68 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="15">
         <v>970</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <v>10</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="4">
         <v>9190</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="20">
+      <c r="J15" s="16">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="15">
         <v>1000</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <v>40</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="G16" s="19" t="s">
+      <c r="E16" s="15"/>
+      <c r="G16" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="4">
         <v>3560</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="20">
+      <c r="J16" s="16">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="15">
         <v>995</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
         <v>30</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="G17" s="19" t="s">
+      <c r="E17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="4">
         <v>3340</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="39" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1570,22 +1887,22 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="19">
+      <c r="E18" s="15">
         <v>10</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>101</v>
+      <c r="H18" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="20">
+      <c r="J18" s="16">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="4">
@@ -1595,17 +1912,17 @@
       <c r="D19" s="4">
         <v>40</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="15">
         <v>10</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="4">
         <v>5390</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="20">
+      <c r="J19" s="16">
         <v>75</v>
       </c>
     </row>
@@ -1613,22 +1930,22 @@
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>980</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15">
         <v>10</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="4">
         <v>4970</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="20">
+      <c r="J20" s="16">
         <v>130</v>
       </c>
     </row>
@@ -1636,52 +1953,52 @@
       <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <v>1040</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
         <v>20</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="28">
-        <v>3710</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="20" t="s">
+      <c r="H21" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>93</v>
+      <c r="A22" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="B22" s="4">
         <v>1190</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>95</v>
+      <c r="C22" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="19">
+      <c r="E22" s="15">
         <v>20</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="28">
-        <v>3620</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="20" t="s">
+      <c r="H22" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="39" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4">
@@ -1691,17 +2008,17 @@
       <c r="D23" s="4">
         <v>80</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="15">
         <v>10</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="4">
         <v>4620</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="20">
+      <c r="J23" s="16">
         <v>75</v>
       </c>
     </row>
@@ -1714,17 +2031,17 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="19">
+      <c r="E24" s="15">
         <v>10</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="4">
         <v>4520</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="20">
+      <c r="J24" s="16">
         <v>50</v>
       </c>
     </row>
@@ -1737,17 +2054,17 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <v>25</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="5">
-        <v>4080</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="20">
+      <c r="H25" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="16">
         <v>70</v>
       </c>
     </row>
@@ -1760,17 +2077,17 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <v>50</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="24" t="s">
-        <v>100</v>
+      <c r="H26" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="20">
+      <c r="J26" s="16">
         <v>50</v>
       </c>
     </row>
@@ -1783,22 +2100,22 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="19">
+      <c r="E27" s="15">
         <v>10</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="5">
-        <v>4640</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="20">
+      <c r="H27" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="4">
@@ -1808,21 +2125,21 @@
       <c r="D28" s="4">
         <v>50</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="15">
         <v>20</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="4">
         <v>5650</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="20">
+      <c r="J28" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21.95" customHeight="1">
+    <row r="29" spans="1:11" ht="25.5">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1831,21 +2148,21 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="19">
+      <c r="E29" s="15">
         <v>20</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="4">
         <v>5020</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21.95" customHeight="1">
+      <c r="J29" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="25.5">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1854,18 +2171,18 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="19">
+      <c r="E30" s="15">
         <v>20</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="4">
         <v>5280</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="20">
-        <v>100</v>
+      <c r="J30" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5" customHeight="1">
@@ -1877,17 +2194,17 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="19">
+      <c r="E31" s="15">
         <v>20</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>99</v>
+      <c r="H31" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="39" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -1903,40 +2220,40 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="19"/>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="15"/>
+      <c r="G32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="4">
         <v>5560</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="11">
         <v>1050</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13">
+      <c r="C33" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10">
         <v>15</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="24">
         <v>6090</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32">
+      <c r="I33" s="24"/>
+      <c r="J33" s="25">
         <v>100</v>
       </c>
     </row>
@@ -1949,22 +2266,22 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="19">
+      <c r="E34" s="15">
         <v>10</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="4">
         <v>5390</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="20">
+      <c r="J34" s="16">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4">
@@ -1974,19 +2291,19 @@
       <c r="D35" s="4">
         <v>50</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="15">
         <v>10</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>94</v>
+      <c r="G35" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="H35" s="4">
         <v>5750</v>
       </c>
-      <c r="I35" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="20">
+      <c r="I35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="16">
         <v>80</v>
       </c>
     </row>
@@ -1999,42 +2316,42 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="19">
+      <c r="E36" s="15">
         <v>50</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="4">
         <v>12240</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="20">
+      <c r="J36" s="16">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="37">
         <v>1330</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37">
         <v>100</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="38">
         <v>20</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H37" s="4">
         <v>12090</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="20">
+      <c r="J37" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2047,17 +2364,17 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="19">
+      <c r="E38" s="15">
         <v>20</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="4">
         <v>10840</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="20">
+      <c r="J38" s="16">
         <v>200</v>
       </c>
     </row>
@@ -2070,17 +2387,17 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="19">
+      <c r="E39" s="15">
         <v>20</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="4">
         <v>12490</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="20">
+      <c r="J39" s="16">
         <v>300</v>
       </c>
     </row>
@@ -2093,17 +2410,17 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="19">
+      <c r="E40" s="15">
         <v>20</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="24" t="s">
-        <v>102</v>
+      <c r="H40" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="20">
+      <c r="J40" s="16">
         <v>250</v>
       </c>
     </row>
@@ -2116,17 +2433,17 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="19">
+      <c r="E41" s="15">
         <v>60</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="15" t="s">
         <v>54</v>
       </c>
       <c r="H41" s="4">
         <v>17790</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="20">
+      <c r="J41" s="16">
         <v>300</v>
       </c>
     </row>
@@ -2139,42 +2456,42 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="19">
+      <c r="E42" s="15">
         <v>50</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="15" t="s">
         <v>23</v>
       </c>
       <c r="H42" s="4">
         <v>1480</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="33">
+      <c r="J42" s="26">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>1200</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13">
+      <c r="C43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10">
         <v>20</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="15" t="s">
         <v>51</v>
       </c>
       <c r="H43" s="4">
         <v>7740</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="20">
+      <c r="J43" s="16">
         <v>150</v>
       </c>
     </row>

--- a/May/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/May/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>B12i</t>
   </si>
@@ -79,9 +79,6 @@
     <t>T130</t>
   </si>
   <si>
-    <t>D39</t>
-  </si>
-  <si>
     <t>T200</t>
   </si>
   <si>
@@ -280,18 +277,6 @@
     <t>L250</t>
   </si>
   <si>
-    <t>100 lifting marging &amp;       30 Back Margin</t>
-  </si>
-  <si>
-    <t>100 lifting marging &amp;      50 Back Margin</t>
-  </si>
-  <si>
-    <t>100 lifting marging &amp;       40 Back Margin</t>
-  </si>
-  <si>
-    <t>100 lifting marging &amp;       50 Back Margin</t>
-  </si>
-  <si>
     <t>D52+</t>
   </si>
   <si>
@@ -340,7 +325,10 @@
     <t>4840/4640</t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 11.05.2019</t>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>Symphony Update Price list                              Date: 15.05.2019</t>
   </si>
 </sst>
 </file>
@@ -421,25 +409,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -497,27 +466,13 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -525,6 +480,35 @@
       <b/>
       <sz val="18"/>
       <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,13 +608,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -645,22 +626,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,64 +650,70 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1057,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="6267450"/>
+          <a:off x="4895850" y="6267450"/>
           <a:ext cx="428625" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1475,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -1488,67 +1472,67 @@
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="17" style="13" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="42" customWidth="1"/>
     <col min="11" max="16384" width="22" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="A1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="28" t="s">
-        <v>84</v>
+      <c r="D2" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>800</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14">
         <v>20</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="3">
         <v>1730</v>
@@ -1558,46 +1542,46 @@
     </row>
     <row r="4" spans="1:11" ht="21.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="15">
+        <v>70</v>
+      </c>
+      <c r="B4" s="14">
         <v>865</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="32">
         <v>1250</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="16">
+      <c r="J4" s="30">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="15">
+        <v>63</v>
+      </c>
+      <c r="B5" s="14">
         <v>810</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
         <v>10</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="32">
         <v>1370</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="16">
+      <c r="J5" s="30">
         <v>20</v>
       </c>
     </row>
@@ -1605,90 +1589,90 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>800</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14">
         <v>10</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="32">
         <v>1890</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="16">
+      <c r="J6" s="30">
         <v>50</v>
       </c>
-      <c r="K6" s="12"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>795</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="39" t="s">
-        <v>88</v>
+      <c r="G7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="30">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>790</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
         <v>30</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>10</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="32">
         <v>6540</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="15">
+        <v>72</v>
+      </c>
+      <c r="B9" s="14">
         <v>915</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="40">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="30">
         <v>100</v>
       </c>
     </row>
@@ -1696,24 +1680,24 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>910</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
         <v>10</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="32">
         <v>5750</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="30">
         <v>80</v>
       </c>
     </row>
@@ -1721,69 +1705,69 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>890</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
         <v>10</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="32">
         <v>7910</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="16">
+      <c r="J11" s="30">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21.95" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="15">
+        <v>75</v>
+      </c>
+      <c r="B12" s="14">
         <v>920</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="32">
         <v>7890</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="39" t="s">
-        <v>82</v>
+      <c r="J12" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>880</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
         <v>40</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>20</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="32">
+        <v>7490</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="30" t="s">
         <v>68</v>
-      </c>
-      <c r="H13" s="4">
-        <v>7490</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="39" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.95" customHeight="1">
@@ -1795,17 +1779,17 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>25</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="32">
         <v>8340</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="16">
+      <c r="J14" s="30">
         <v>100</v>
       </c>
     </row>
@@ -1813,69 +1797,69 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>970</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
         <v>10</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="32">
+        <v>9190</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="32">
+        <v>3560</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="14">
+        <v>995</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14">
         <v>30</v>
       </c>
-      <c r="H15" s="4">
-        <v>9190</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="16">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
-        <v>40</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3560</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="15">
-        <v>995</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>30</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="E17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="32">
         <v>3340</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="39" t="s">
-        <v>89</v>
+      <c r="J17" s="30">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="21.95" customHeight="1">
@@ -1887,23 +1871,23 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>10</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="30">
         <v>100</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="16">
-        <v>100</v>
-      </c>
     </row>
     <row r="19" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>74</v>
+      <c r="A19" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="4">
         <v>960</v>
@@ -1912,94 +1896,96 @@
       <c r="D19" s="4">
         <v>40</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>10</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="32">
+        <v>5390</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A20" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1170</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
+        <v>10</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="4">
-        <v>5390</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="15">
-        <v>980</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
-        <v>10</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="H20" s="32">
         <v>4970</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="16">
+      <c r="J20" s="30">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="27" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="15">
+        <v>69</v>
+      </c>
+      <c r="B21" s="14">
         <v>1040</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
         <v>20</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="39" t="s">
-        <v>90</v>
+      <c r="G21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="30">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>92</v>
+      <c r="A22" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="B22" s="4">
         <v>1190</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>94</v>
+      <c r="C22" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>20</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="39" t="s">
-        <v>91</v>
+      <c r="G22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="30">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A23" s="29" t="s">
-        <v>24</v>
+      <c r="A23" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="4">
         <v>1270</v>
@@ -2008,86 +1994,86 @@
       <c r="D23" s="4">
         <v>80</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>10</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="32">
         <v>4620</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="16">
+      <c r="J23" s="30">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="21.95" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>1190</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>10</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="32">
         <v>4520</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="16">
+      <c r="J24" s="30">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="21.95" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4">
         <v>1290</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>25</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="16">
+      <c r="G25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="30">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="21.95" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
         <v>1190</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>50</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>99</v>
+      <c r="G26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="16">
+      <c r="J26" s="30">
         <v>50</v>
       </c>
     </row>
@@ -2100,22 +2086,22 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>10</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="16">
+      <c r="G27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="4">
@@ -2125,17 +2111,17 @@
       <c r="D28" s="4">
         <v>50</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="14">
         <v>20</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="32">
         <v>5650</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="16">
+      <c r="J28" s="30">
         <v>75</v>
       </c>
     </row>
@@ -2148,18 +2134,18 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="15">
+      <c r="E29" s="14">
         <v>20</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="32">
         <v>5020</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="40" t="s">
-        <v>102</v>
+      <c r="J29" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="25.5">
@@ -2171,89 +2157,89 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="15">
+      <c r="E30" s="14">
         <v>20</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="32">
         <v>5280</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="40" t="s">
-        <v>102</v>
+      <c r="J30" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="4">
         <v>1100</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="15">
+      <c r="E31" s="14">
         <v>20</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>98</v>
+      <c r="G31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="39" t="s">
-        <v>67</v>
+      <c r="J31" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="27" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="4">
         <v>1100</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="15"/>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="32">
+        <v>5560</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1050</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9">
+        <v>15</v>
+      </c>
+      <c r="G33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="4">
-        <v>5560</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="11">
-        <v>1050</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="10">
-        <v>15</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="24">
+      <c r="H33" s="37">
         <v>6090</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25">
+      <c r="I33" s="22"/>
+      <c r="J33" s="40">
         <v>100</v>
       </c>
     </row>
@@ -2266,22 +2252,22 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>10</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="32">
         <v>5390</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="16">
+      <c r="J34" s="30">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4">
@@ -2291,67 +2277,67 @@
       <c r="D35" s="4">
         <v>50</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>10</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="32">
         <v>5750</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J35" s="16">
+      <c r="I35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="4">
         <v>1330</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>50</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="32">
         <v>12240</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="16">
+      <c r="J36" s="30">
         <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="37">
+      <c r="A37" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="27">
         <v>1330</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27">
         <v>100</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="28">
         <v>20</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="32">
         <v>12090</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="16">
+      <c r="J37" s="30">
         <v>200</v>
       </c>
     </row>
@@ -2364,134 +2350,134 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>20</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="32">
         <v>10840</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="16">
+      <c r="J38" s="30">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4">
         <v>1220</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>20</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="32">
         <v>12490</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="16">
+      <c r="J39" s="30">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
         <v>1460</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>20</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>101</v>
+      <c r="G40" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="16">
+      <c r="J40" s="30">
         <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>1470</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>60</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="32">
         <v>17790</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="16">
+      <c r="J41" s="30">
         <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4">
         <v>1590</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>50</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="32">
         <v>1480</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="26">
+      <c r="J42" s="41">
         <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="11">
+      <c r="A43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="10">
         <v>1200</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10">
+      <c r="C43" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="9">
         <v>20</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="32">
         <v>7740</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="16">
+      <c r="J43" s="30">
         <v>150</v>
       </c>
     </row>

--- a/May/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/May/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>B12i</t>
   </si>
@@ -289,9 +289,6 @@
     <t>i65</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>6210/5290</t>
   </si>
   <si>
@@ -328,7 +325,13 @@
     <t>D54+</t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 15.05.2019</t>
+    <t>Symphony Update Price list                              Date: 19.05.2019</t>
+  </si>
+  <si>
+    <t>500 Discount &amp;                100 Back Margin</t>
+  </si>
+  <si>
+    <t>1000 Discount &amp;             170 Back Margin</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +515,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -582,7 +592,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -668,52 +678,55 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1459,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -1472,25 +1485,25 @@
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="38" customWidth="1"/>
     <col min="9" max="9" width="17" style="13" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="41" customWidth="1"/>
     <col min="11" max="16384" width="22" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="A1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1553,11 +1566,11 @@
       <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>1250</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>15</v>
       </c>
     </row>
@@ -1577,11 +1590,11 @@
       <c r="G5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>1370</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <v>20</v>
       </c>
     </row>
@@ -1600,11 +1613,11 @@
       <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>1890</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <v>50</v>
       </c>
       <c r="K6" s="11"/>
@@ -1624,11 +1637,11 @@
       <c r="G7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>99</v>
+      <c r="H7" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>30</v>
       </c>
     </row>
@@ -1649,11 +1662,11 @@
       <c r="G8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>6540</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="21.95" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1668,11 +1681,11 @@
       <c r="G9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30">
+      <c r="H9" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="29">
         <v>100</v>
       </c>
     </row>
@@ -1691,13 +1704,11 @@
       <c r="G10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>5750</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="30">
+      <c r="I10" s="19"/>
+      <c r="J10" s="29">
         <v>80</v>
       </c>
     </row>
@@ -1716,11 +1727,11 @@
       <c r="G11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>7910</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>100</v>
       </c>
     </row>
@@ -1737,11 +1748,11 @@
       <c r="G12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>7890</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1762,15 +1773,15 @@
       <c r="G13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>7490</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.95" customHeight="1">
+    <row r="14" spans="1:11" ht="25.5">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1785,15 +1796,15 @@
       <c r="G14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>8340</v>
       </c>
       <c r="I14" s="4"/>
-      <c r="J14" s="30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21.95" customHeight="1">
+      <c r="J14" s="45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1808,12 +1819,12 @@
       <c r="G15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <v>9190</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="30">
-        <v>170</v>
+      <c r="J15" s="45" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21.95" customHeight="1">
@@ -1831,11 +1842,11 @@
       <c r="G16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>3560</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <v>35</v>
       </c>
     </row>
@@ -1854,11 +1865,11 @@
       <c r="G17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>3340</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>50</v>
       </c>
     </row>
@@ -1877,11 +1888,11 @@
       <c r="G18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>95</v>
+      <c r="H18" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="I18" s="4"/>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>100</v>
       </c>
     </row>
@@ -1902,24 +1913,22 @@
       <c r="G19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="31">
         <v>5390</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>103</v>
+      <c r="A20" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="B20" s="14">
         <v>1170</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>91</v>
-      </c>
+      <c r="C20" s="43"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14">
         <v>10</v>
@@ -1927,11 +1936,11 @@
       <c r="G20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>4970</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <v>130</v>
       </c>
     </row>
@@ -1950,11 +1959,11 @@
       <c r="G21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="34" t="s">
-        <v>100</v>
+      <c r="H21" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="I21" s="20"/>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>40</v>
       </c>
     </row>
@@ -1965,9 +1974,7 @@
       <c r="B22" s="4">
         <v>1190</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="4"/>
       <c r="E22" s="14">
         <v>20</v>
@@ -1975,11 +1982,11 @@
       <c r="G22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="34" t="s">
-        <v>101</v>
+      <c r="H22" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="I22" s="20"/>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <v>50</v>
       </c>
     </row>
@@ -2000,11 +2007,11 @@
       <c r="G23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="31">
         <v>4620</v>
       </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <v>75</v>
       </c>
     </row>
@@ -2023,11 +2030,11 @@
       <c r="G24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <v>4520</v>
       </c>
       <c r="I24" s="4"/>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <v>50</v>
       </c>
     </row>
@@ -2046,11 +2053,11 @@
       <c r="G25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="34" t="s">
-        <v>98</v>
+      <c r="H25" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="I25" s="12"/>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>70</v>
       </c>
     </row>
@@ -2069,11 +2076,11 @@
       <c r="G26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="35" t="s">
-        <v>94</v>
+      <c r="H26" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="I26" s="4"/>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <v>50</v>
       </c>
     </row>
@@ -2092,11 +2099,11 @@
       <c r="G27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="36" t="s">
-        <v>102</v>
+      <c r="H27" s="35" t="s">
+        <v>101</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="30">
+      <c r="J27" s="29">
         <v>80</v>
       </c>
     </row>
@@ -2117,11 +2124,11 @@
       <c r="G28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="31">
         <v>5650</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="30">
+      <c r="J28" s="29">
         <v>75</v>
       </c>
     </row>
@@ -2140,12 +2147,12 @@
       <c r="G29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="31">
         <v>5020</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="30" t="s">
-        <v>97</v>
+      <c r="J29" s="45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="25.5">
@@ -2163,12 +2170,12 @@
       <c r="G30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="31">
         <v>5280</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="30" t="s">
-        <v>97</v>
+      <c r="J30" s="45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5" customHeight="1">
@@ -2186,11 +2193,11 @@
       <c r="G31" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="31" t="s">
-        <v>93</v>
+      <c r="H31" s="30" t="s">
+        <v>92</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="29" t="s">
         <v>66</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -2210,11 +2217,11 @@
       <c r="G32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="31">
         <v>5560</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2225,9 +2232,7 @@
       <c r="B33" s="10">
         <v>1050</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="10"/>
       <c r="E33" s="9">
         <v>15</v>
@@ -2235,11 +2240,11 @@
       <c r="G33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="36">
         <v>6090</v>
       </c>
       <c r="I33" s="22"/>
-      <c r="J33" s="40">
+      <c r="J33" s="39">
         <v>100</v>
       </c>
     </row>
@@ -2258,11 +2263,11 @@
       <c r="G34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="31">
         <v>5390</v>
       </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <v>120</v>
       </c>
     </row>
@@ -2283,13 +2288,13 @@
       <c r="G35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="31">
         <v>5750</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <v>80</v>
       </c>
     </row>
@@ -2308,11 +2313,11 @@
       <c r="G36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="32">
+      <c r="H36" s="31">
         <v>12240</v>
       </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <v>350</v>
       </c>
     </row>
@@ -2333,11 +2338,11 @@
       <c r="G37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="31">
         <v>12090</v>
       </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <v>200</v>
       </c>
     </row>
@@ -2356,11 +2361,11 @@
       <c r="G38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="31">
         <v>10840</v>
       </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <v>200</v>
       </c>
     </row>
@@ -2379,11 +2384,11 @@
       <c r="G39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="31">
         <v>12490</v>
       </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>300</v>
       </c>
     </row>
@@ -2402,11 +2407,11 @@
       <c r="G40" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="38" t="s">
-        <v>96</v>
+      <c r="H40" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <v>250</v>
       </c>
     </row>
@@ -2425,11 +2430,11 @@
       <c r="G41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="31">
         <v>17790</v>
       </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>300</v>
       </c>
     </row>
@@ -2448,11 +2453,11 @@
       <c r="G42" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="31">
         <v>1480</v>
       </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="41">
+      <c r="J42" s="40">
         <v>40</v>
       </c>
     </row>
@@ -2463,9 +2468,7 @@
       <c r="B43" s="10">
         <v>1200</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="C43" s="15"/>
       <c r="D43" s="10"/>
       <c r="E43" s="9">
         <v>20</v>
@@ -2473,11 +2476,11 @@
       <c r="G43" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="31">
         <v>7740</v>
       </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <v>150</v>
       </c>
     </row>
